--- a/md/test.xlsx
+++ b/md/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easyo/Desktop/oeasy/oeasypython/md/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06718E70-E569-0546-BD07-B89623190BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276671D5-A7E9-B04C-AA95-F915B3322016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="520" windowWidth="27840" windowHeight="16440" xr2:uid="{115B18C8-7A0E-5042-AAB8-5F2EE59722A0}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="27840" windowHeight="16440" xr2:uid="{115B18C8-7A0E-5042-AAB8-5F2EE59722A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="test" localSheetId="0">Sheet1!$A$2:$A$119</definedName>
     <definedName name="test_1" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="271">
   <si>
     <t>0-189725-000502 读取细节.sy.md</t>
   </si>
@@ -121,631 +121,741 @@
     <t>201110-194111-020111 xpath 路径表达式.sy.md</t>
   </si>
   <si>
+    <t>201130-194455-020113 综合练习 遍历链接.sy.md</t>
+  </si>
+  <si>
+    <t>210-87343-000209 转义序列.sy.md</t>
+  </si>
+  <si>
+    <t>220-89703-000210 转义字符.sy.md</t>
+  </si>
+  <si>
+    <t>230-87341-000211 光标位置.sy.md</t>
+  </si>
+  <si>
+    <t>240-104140-000212 字体样式.sy.md</t>
+  </si>
+  <si>
+    <t>250-87346-000213 修改颜色.sy.md</t>
+  </si>
+  <si>
+    <t>260-95632-000214 背景颜色.sy.md</t>
+  </si>
+  <si>
+    <t>270-89900-002015 更多颜色.sy.md</t>
+  </si>
+  <si>
+    <t>280-89935-000216 各种符号.sy.md</t>
+  </si>
+  <si>
+    <t>290-92241-000217 编码进化.sy.md</t>
+  </si>
+  <si>
+    <t>30-87333-000103 继续运行.sy.md</t>
+  </si>
+  <si>
+    <t>300-92402-000218 各语言字符编码.sy.md</t>
+  </si>
+  <si>
+    <t>3020-188458-000302 定义变量.sy.md</t>
+  </si>
+  <si>
+    <t>3030-188464-000303 接收输入.sy.md</t>
+  </si>
+  <si>
+    <t>3040-188465-000304 相加运算.sy.md</t>
+  </si>
+  <si>
+    <t>3050-188729-000305 尝试捕获异常.sy.md</t>
+  </si>
+  <si>
+    <t>3060-188728-000306 自制模块.sy.md</t>
+  </si>
+  <si>
+    <t>3070-188730-000307 主控程序.sy.md</t>
+  </si>
+  <si>
+    <t>3080-188731-000308 版本控制git.sy.md</t>
+  </si>
+  <si>
+    <t>3090-188727-000309 注释说明.sy.md</t>
+  </si>
+  <si>
+    <t>310-92414-000219 unicode.sy.md</t>
+  </si>
+  <si>
+    <t>3100-188787-000310 帮助手册.sy.md</t>
+  </si>
+  <si>
+    <t>3110-188798-000311 动态类型.sy.md</t>
+  </si>
+  <si>
+    <t>3120-188803-000312 字符串类型.sy.md</t>
+  </si>
+  <si>
+    <t>3130-188814-000313 整型数字变量.sy.md</t>
+  </si>
+  <si>
+    <t>3140-188908-000314 进制转化.sy.md</t>
+  </si>
+  <si>
+    <t>320-92423-000220 utf-8.sy.md</t>
+  </si>
+  <si>
+    <t>330-92554-000221 另类字符.sy.md</t>
+  </si>
+  <si>
+    <t>340-92555-000222 python历史.sy.md</t>
+  </si>
+  <si>
+    <t>40-87374-000104 调试程序.sy.md</t>
+  </si>
+  <si>
+    <t>4010-188921-000401 加法运算.sy.md</t>
+  </si>
+  <si>
+    <t>4020-188926-000402 键盘输入.sy.md</t>
+  </si>
+  <si>
+    <t>4030-188927-000403 随机数字.sy.md</t>
+  </si>
+  <si>
+    <t>4040-189035-000404 随机字符.sy.md</t>
+  </si>
+  <si>
+    <t>4050-189036-000405 颜色常量.sy.md</t>
+  </si>
+  <si>
+    <t>4070-188928-000407 减法运算.sy.md</t>
+  </si>
+  <si>
+    <t>4070-189358-000406 随机快乐.sy.md</t>
+  </si>
+  <si>
+    <t>4080-188929-000408 负数表示.sy.md</t>
+  </si>
+  <si>
+    <t>4090-189359-000409 补码系统.sy.md</t>
+  </si>
+  <si>
+    <t>4100-188930-000410 乘法运算.sy.md</t>
+  </si>
+  <si>
+    <t>4110-189507-000411 除法运算.sy.md</t>
+  </si>
+  <si>
+    <t>4120-189509-000412 取整操作.sy.md</t>
+  </si>
+  <si>
+    <t>4130-189513-000413 浮点类型.sy.md</t>
+  </si>
+  <si>
+    <t>4140-189617-000414 分数类型.sy.md</t>
+  </si>
+  <si>
+    <t>4150-189618-000415 深入浮点型数字.sy.md</t>
+  </si>
+  <si>
+    <t>4160-189619-000416 深入整型数字.sy.md</t>
+  </si>
+  <si>
+    <t>4170-189506-000417 乘方运算.sy.md</t>
+  </si>
+  <si>
+    <t>4180-189668-000148 开方和对数运算.sy.md</t>
+  </si>
+  <si>
+    <t>4190-189669-000419 虚数类型.sy.md</t>
+  </si>
+  <si>
+    <t>4200-189673-000420 表达式 expression.sy.md</t>
+  </si>
+  <si>
+    <t>426-88731-000208 teletype历史.sy.md</t>
+  </si>
+  <si>
+    <t>50-87382-000105 程序本质.sy.md</t>
+  </si>
+  <si>
+    <t>5010-189722-000501 打开文件.sy.md</t>
+  </si>
+  <si>
+    <t>5030-189732-000503 命令行参数.sy.md</t>
+  </si>
+  <si>
+    <t>5040-190174-000504 写入文件.sy.md</t>
+  </si>
+  <si>
+    <t>5050-190199-000505 二进制模式.sy.md</t>
+  </si>
+  <si>
+    <t>5060-190203-000506 二进制文件流存取整数.sy.md</t>
+  </si>
+  <si>
+    <t>5070-190458-000507  二进制文件流存取浮点数.sy.md</t>
+  </si>
+  <si>
+    <t>5080-190459-000508 python的进化.sy.md</t>
+  </si>
+  <si>
+    <t>5090-190650-000509 拷贝程序.sy.md</t>
+  </si>
+  <si>
+    <t>5100-191368-000510 文件锁.sy.md</t>
+  </si>
+  <si>
+    <t>5110-190654-000511 追加写入.sy.md</t>
+  </si>
+  <si>
+    <t>5120-190651-000512 序列化 Serialize.sy.md</t>
+  </si>
+  <si>
+    <t>5130-190652-000513 多文件读写.sy.md</t>
+  </si>
+  <si>
+    <t>5140-192165-000514 执行外部命令.sy.md</t>
+  </si>
+  <si>
+    <t>5150-190653-000515 编码encoding.sy.md</t>
+  </si>
+  <si>
+    <t>5160-192174-000516 with关键字.sy.md</t>
+  </si>
+  <si>
+    <t>60-87385-000106 hello world.sy.md</t>
+  </si>
+  <si>
+    <t>6010-192219-000601  列表 - 类型.sy.md</t>
+  </si>
+  <si>
+    <t>6020-192220-000602 列表 - 增减.sy.md</t>
+  </si>
+  <si>
+    <t>6030-192221-000603 列表 - 构造 范围 range.sy.md</t>
+  </si>
+  <si>
+    <t>6040-192241-000604 列表 - 索引 index.sy.md</t>
+  </si>
+  <si>
+    <t>6050-192242-000605 列表 - 运算.sy.md</t>
+  </si>
+  <si>
+    <t>6060-192294-000606 列表 - 切片 slice.sy.md</t>
+  </si>
+  <si>
+    <t>6070-192295-000607  列表  - 排序 order.sy.md</t>
+  </si>
+  <si>
+    <t>6080-192296-000608 列表 - 嵌套embeded.sy.md</t>
+  </si>
+  <si>
+    <t>6090-192304-000609 元组 tuple.sy.md</t>
+  </si>
+  <si>
+    <t>6100-192403-000610 字符串序列 string.sy.md</t>
+  </si>
+  <si>
+    <t>6110-192405-000611 字节流序列 bytes.sy.md</t>
+  </si>
+  <si>
+    <t>6120-192411-000612 集合 set 元素操作.sy.md</t>
+  </si>
+  <si>
+    <t>6130-192413-000613 集合运算.sy.md</t>
+  </si>
+  <si>
+    <t>6140-192414-000614 字典 dictionary.sy.md</t>
+  </si>
+  <si>
+    <t>6150-192423-000615 字典操作.sy.md</t>
+  </si>
+  <si>
+    <t>70-87487-000107 字符本质.sy.md</t>
+  </si>
+  <si>
+    <t>701-197319-000701 分支开始.sy.md</t>
+  </si>
+  <si>
+    <t>7020-198696-000702 缩进细节.sy.md</t>
+  </si>
+  <si>
+    <t>7030-199151-000703 调试程序.sy.md</t>
+  </si>
+  <si>
+    <t>7040-199155-000704 比较运算符.sy.md</t>
+  </si>
+  <si>
+    <t>80-87675-000108 ascii码表.sy.md</t>
+  </si>
+  <si>
+    <t>90-87338-000109 换行字符.sy.md</t>
+  </si>
+  <si>
+    <t>读取细节</t>
+  </si>
+  <si>
+    <t>电传打字机.sp.md</t>
+  </si>
+  <si>
+    <t>先跑起来</t>
+  </si>
+  <si>
+    <t>不换行输出</t>
+  </si>
+  <si>
+    <t>输出时间</t>
+  </si>
+  <si>
+    <t>刷新时间</t>
+  </si>
+  <si>
+    <t>整合程序</t>
+  </si>
+  <si>
+    <t>啥是变量</t>
+  </si>
+  <si>
+    <t>直接运行</t>
+  </si>
+  <si>
+    <t>设置路径</t>
+  </si>
+  <si>
+    <t>查看进程</t>
+  </si>
+  <si>
+    <t>回到开头</t>
+  </si>
+  <si>
+    <t>深度整合</t>
+  </si>
+  <si>
+    <t>换行回车</t>
+  </si>
+  <si>
+    <t>你好世界</t>
+  </si>
+  <si>
+    <t>浏览过程</t>
+  </si>
+  <si>
+    <t>xpath筛选</t>
+  </si>
+  <si>
+    <t>转义序列</t>
+  </si>
+  <si>
+    <t>转义字符</t>
+  </si>
+  <si>
+    <t>光标位置</t>
+  </si>
+  <si>
+    <t>字体样式</t>
+  </si>
+  <si>
+    <t>修改颜色</t>
+  </si>
+  <si>
+    <t>背景颜色</t>
+  </si>
+  <si>
+    <t>更多颜色</t>
+  </si>
+  <si>
+    <t>各种符号</t>
+  </si>
+  <si>
+    <t>编码进化</t>
+  </si>
+  <si>
+    <t>继续运行</t>
+  </si>
+  <si>
+    <t>各语言字符编码</t>
+  </si>
+  <si>
+    <t>定义变量</t>
+  </si>
+  <si>
+    <t>接收输入</t>
+  </si>
+  <si>
+    <t>相加运算</t>
+  </si>
+  <si>
+    <t>尝试捕获异常</t>
+  </si>
+  <si>
+    <t>自制模块</t>
+  </si>
+  <si>
+    <t>主控程序</t>
+  </si>
+  <si>
+    <t>版本控制git</t>
+  </si>
+  <si>
+    <t>注释说明</t>
+  </si>
+  <si>
+    <t>unicode</t>
+  </si>
+  <si>
+    <t>帮助手册</t>
+  </si>
+  <si>
+    <t>动态类型</t>
+  </si>
+  <si>
+    <t>字符串类型</t>
+  </si>
+  <si>
+    <t>整型数字变量</t>
+  </si>
+  <si>
+    <t>进制转化</t>
+  </si>
+  <si>
+    <t>另类字符</t>
+  </si>
+  <si>
+    <t>python历史</t>
+  </si>
+  <si>
+    <t>调试程序</t>
+  </si>
+  <si>
+    <t>加法运算</t>
+  </si>
+  <si>
+    <t>键盘输入</t>
+  </si>
+  <si>
+    <t>随机数字</t>
+  </si>
+  <si>
+    <t>随机字符</t>
+  </si>
+  <si>
+    <t>颜色常量</t>
+  </si>
+  <si>
+    <t>减法运算</t>
+  </si>
+  <si>
+    <t>随机快乐</t>
+  </si>
+  <si>
+    <t>负数表示</t>
+  </si>
+  <si>
+    <t>补码系统</t>
+  </si>
+  <si>
+    <t>乘法运算</t>
+  </si>
+  <si>
+    <t>除法运算</t>
+  </si>
+  <si>
+    <t>取整操作</t>
+  </si>
+  <si>
+    <t>浮点类型</t>
+  </si>
+  <si>
+    <t>分数类型</t>
+  </si>
+  <si>
+    <t>深入浮点型数字</t>
+  </si>
+  <si>
+    <t>深入整型数字</t>
+  </si>
+  <si>
+    <t>乘方运算</t>
+  </si>
+  <si>
+    <t>开方和对数运算</t>
+  </si>
+  <si>
+    <t>虚数类型</t>
+  </si>
+  <si>
+    <t>teletype历史</t>
+  </si>
+  <si>
+    <t>程序本质</t>
+  </si>
+  <si>
+    <t>打开文件</t>
+  </si>
+  <si>
+    <t>命令行参数</t>
+  </si>
+  <si>
+    <t>写入文件</t>
+  </si>
+  <si>
+    <t>二进制模式</t>
+  </si>
+  <si>
+    <t>二进制文件流存取整数</t>
+  </si>
+  <si>
+    <t>二进制文件流存取浮点数</t>
+  </si>
+  <si>
+    <t>python的进化</t>
+  </si>
+  <si>
+    <t>拷贝程序</t>
+  </si>
+  <si>
+    <t>文件锁</t>
+  </si>
+  <si>
+    <t>追加写入</t>
+  </si>
+  <si>
+    <t>多文件读写</t>
+  </si>
+  <si>
+    <t>执行外部命令</t>
+  </si>
+  <si>
+    <t>编码encoding</t>
+  </si>
+  <si>
+    <t>with关键字</t>
+  </si>
+  <si>
+    <t>集合运算</t>
+  </si>
+  <si>
+    <t>字典操作</t>
+  </si>
+  <si>
+    <t>字符本质</t>
+  </si>
+  <si>
+    <t>分支开始</t>
+  </si>
+  <si>
+    <t>缩进细节</t>
+  </si>
+  <si>
+    <t>比较运算符</t>
+  </si>
+  <si>
+    <t>ascii码表</t>
+  </si>
+  <si>
+    <t>换行字符</t>
+  </si>
+  <si>
+    <t>requests模块</t>
+  </si>
+  <si>
+    <t>lxml元素树形结构</t>
+  </si>
+  <si>
+    <t>lxml属性</t>
+  </si>
+  <si>
+    <t>lxml文本</t>
+  </si>
+  <si>
+    <t>lxml遍历</t>
+  </si>
+  <si>
+    <t>lxml生成etree</t>
+  </si>
+  <si>
+    <t>lxml结合requests</t>
+  </si>
+  <si>
+    <t>xpath属性筛选</t>
+  </si>
+  <si>
+    <t>xpath路径表达式</t>
+  </si>
+  <si>
+    <t>utf8</t>
+  </si>
+  <si>
+    <t>表达式expression</t>
+  </si>
+  <si>
+    <t>序列化Serialize</t>
+  </si>
+  <si>
+    <t>helloworld</t>
+  </si>
+  <si>
+    <t>列表类型</t>
+  </si>
+  <si>
+    <t>列表增减</t>
+  </si>
+  <si>
+    <t>列表构造范围</t>
+  </si>
+  <si>
+    <t>列表索引index</t>
+  </si>
+  <si>
+    <t>列表运算</t>
+  </si>
+  <si>
+    <t>列表切片slice</t>
+  </si>
+  <si>
+    <t>列表排序order</t>
+  </si>
+  <si>
+    <t>列表嵌套embeded</t>
+  </si>
+  <si>
+    <t>元组tuple</t>
+  </si>
+  <si>
+    <t>字符串序列string</t>
+  </si>
+  <si>
+    <t>字节流序列bytes</t>
+  </si>
+  <si>
+    <t>集合set元素操作</t>
+  </si>
+  <si>
+    <t>字典dictionary</t>
+  </si>
+  <si>
+    <t>7050-203062-000705 序列类容器的比较运算.sy.md</t>
+  </si>
+  <si>
+    <t>7060-203075-000706 映射类和集合类容器比较运算.sy.md</t>
+  </si>
+  <si>
+    <t>7070-203108-000707 是否等于_is.sy.md</t>
+  </si>
+  <si>
+    <t>7080-203370-000708 是否是某类型实例_isinstance.sy.md</t>
+  </si>
+  <si>
+    <t>7090-203367-000709 是否属于_in.sy.md</t>
+  </si>
+  <si>
+    <t>7100-203369-000710 取反运算_not.sy.md</t>
+  </si>
+  <si>
+    <t>7110-203372-000711 双分支结构_else.sy.md</t>
+  </si>
+  <si>
+    <t>7120-203373-000712 三目运算符.sy.md</t>
+  </si>
+  <si>
+    <t>7130-203374-000713 嵌套条件语句.sy.md</t>
+  </si>
+  <si>
+    <t>7150-203377-000715 跳过_pass_猜丁壳.sy.md</t>
+  </si>
+  <si>
+    <t>7160-203381-000716 逻辑与_and.sy.md</t>
+  </si>
+  <si>
+    <t>7170-203409-000717 数字区间.sy.md</t>
+  </si>
+  <si>
+    <t>7180-203387-000718 逻辑或_or.sy.md</t>
+  </si>
+  <si>
+    <t>7190-203872-000719 优先级_precedence.sy.md</t>
+  </si>
+  <si>
+    <t>7200-203873-000720 综合练习_玩骰子_dices.sy.md</t>
+  </si>
+  <si>
+    <t>7210-203874-000721 位运算符_按位与或非.sy.md</t>
+  </si>
+  <si>
+    <t>7220-205644-000722 移位运算符.sy.md</t>
+  </si>
+  <si>
+    <t>7230-206033-000723 条件分支流程总结.sy.md</t>
+  </si>
+  <si>
     <t>201120-194366-020112 综合练习 爬取网站.sy.md</t>
-  </si>
-  <si>
-    <t>201130-194455-020113 综合练习 遍历链接.sy.md</t>
-  </si>
-  <si>
-    <t>210-87343-000209 转义序列.sy.md</t>
-  </si>
-  <si>
-    <t>220-89703-000210 转义字符.sy.md</t>
-  </si>
-  <si>
-    <t>230-87341-000211 光标位置.sy.md</t>
-  </si>
-  <si>
-    <t>240-104140-000212 字体样式.sy.md</t>
-  </si>
-  <si>
-    <t>250-87346-000213 修改颜色.sy.md</t>
-  </si>
-  <si>
-    <t>260-95632-000214 背景颜色.sy.md</t>
-  </si>
-  <si>
-    <t>270-89900-002015 更多颜色.sy.md</t>
-  </si>
-  <si>
-    <t>280-89935-000216 各种符号.sy.md</t>
-  </si>
-  <si>
-    <t>290-92241-000217 编码进化.sy.md</t>
-  </si>
-  <si>
-    <t>30-87333-000103 继续运行.sy.md</t>
-  </si>
-  <si>
-    <t>300-92402-000218 各语言字符编码.sy.md</t>
-  </si>
-  <si>
-    <t>3020-188458-000302 定义变量.sy.md</t>
-  </si>
-  <si>
-    <t>3030-188464-000303 接收输入.sy.md</t>
-  </si>
-  <si>
-    <t>3040-188465-000304 相加运算.sy.md</t>
-  </si>
-  <si>
-    <t>3050-188729-000305 尝试捕获异常.sy.md</t>
-  </si>
-  <si>
-    <t>3060-188728-000306 自制模块.sy.md</t>
-  </si>
-  <si>
-    <t>3070-188730-000307 主控程序.sy.md</t>
-  </si>
-  <si>
-    <t>3080-188731-000308 版本控制git.sy.md</t>
-  </si>
-  <si>
-    <t>3090-188727-000309 注释说明.sy.md</t>
-  </si>
-  <si>
-    <t>310-92414-000219 unicode.sy.md</t>
-  </si>
-  <si>
-    <t>3100-188787-000310 帮助手册.sy.md</t>
-  </si>
-  <si>
-    <t>3110-188798-000311 动态类型.sy.md</t>
-  </si>
-  <si>
-    <t>3120-188803-000312 字符串类型.sy.md</t>
-  </si>
-  <si>
-    <t>3130-188814-000313 整型数字变量.sy.md</t>
-  </si>
-  <si>
-    <t>3140-188908-000314 进制转化.sy.md</t>
-  </si>
-  <si>
-    <t>320-92423-000220 utf-8.sy.md</t>
-  </si>
-  <si>
-    <t>330-92554-000221 另类字符.sy.md</t>
-  </si>
-  <si>
-    <t>340-92555-000222 python历史.sy.md</t>
-  </si>
-  <si>
-    <t>40-87374-000104 调试程序.sy.md</t>
-  </si>
-  <si>
-    <t>4010-188921-000401 加法运算.sy.md</t>
-  </si>
-  <si>
-    <t>4020-188926-000402 键盘输入.sy.md</t>
-  </si>
-  <si>
-    <t>4030-188927-000403 随机数字.sy.md</t>
-  </si>
-  <si>
-    <t>4040-189035-000404 随机字符.sy.md</t>
-  </si>
-  <si>
-    <t>4050-189036-000405 颜色常量.sy.md</t>
-  </si>
-  <si>
-    <t>4070-188928-000407 减法运算.sy.md</t>
-  </si>
-  <si>
-    <t>4070-189358-000406 随机快乐.sy.md</t>
-  </si>
-  <si>
-    <t>4080-188929-000408 负数表示.sy.md</t>
-  </si>
-  <si>
-    <t>4090-189359-000409 补码系统.sy.md</t>
-  </si>
-  <si>
-    <t>4100-188930-000410 乘法运算.sy.md</t>
-  </si>
-  <si>
-    <t>4110-189507-000411 除法运算.sy.md</t>
-  </si>
-  <si>
-    <t>4120-189509-000412 取整操作.sy.md</t>
-  </si>
-  <si>
-    <t>4130-189513-000413 浮点类型.sy.md</t>
-  </si>
-  <si>
-    <t>4140-189617-000414 分数类型.sy.md</t>
-  </si>
-  <si>
-    <t>4150-189618-000415 深入浮点型数字.sy.md</t>
-  </si>
-  <si>
-    <t>4160-189619-000416 深入整型数字.sy.md</t>
-  </si>
-  <si>
-    <t>4170-189506-000417 乘方运算.sy.md</t>
-  </si>
-  <si>
-    <t>4180-189668-000148 开方和对数运算.sy.md</t>
-  </si>
-  <si>
-    <t>4190-189669-000419 虚数类型.sy.md</t>
-  </si>
-  <si>
-    <t>4200-189673-000420 表达式 expression.sy.md</t>
-  </si>
-  <si>
-    <t>426-88731-000208 teletype历史.sy.md</t>
-  </si>
-  <si>
-    <t>50-87382-000105 程序本质.sy.md</t>
-  </si>
-  <si>
-    <t>5010-189722-000501 打开文件.sy.md</t>
-  </si>
-  <si>
-    <t>5030-189732-000503 命令行参数.sy.md</t>
-  </si>
-  <si>
-    <t>5040-190174-000504 写入文件.sy.md</t>
-  </si>
-  <si>
-    <t>5050-190199-000505 二进制模式.sy.md</t>
-  </si>
-  <si>
-    <t>5060-190203-000506 二进制文件流存取整数.sy.md</t>
-  </si>
-  <si>
-    <t>5070-190458-000507  二进制文件流存取浮点数.sy.md</t>
-  </si>
-  <si>
-    <t>5080-190459-000508 python的进化.sy.md</t>
-  </si>
-  <si>
-    <t>5090-190650-000509 拷贝程序.sy.md</t>
-  </si>
-  <si>
-    <t>5100-191368-000510 文件锁.sy.md</t>
-  </si>
-  <si>
-    <t>5110-190654-000511 追加写入.sy.md</t>
-  </si>
-  <si>
-    <t>5120-190651-000512 序列化 Serialize.sy.md</t>
-  </si>
-  <si>
-    <t>5130-190652-000513 多文件读写.sy.md</t>
-  </si>
-  <si>
-    <t>5140-192165-000514 执行外部命令.sy.md</t>
-  </si>
-  <si>
-    <t>5150-190653-000515 编码encoding.sy.md</t>
-  </si>
-  <si>
-    <t>5160-192174-000516 with关键字.sy.md</t>
-  </si>
-  <si>
-    <t>60-87385-000106 hello world.sy.md</t>
-  </si>
-  <si>
-    <t>6010-192219-000601  列表 - 类型.sy.md</t>
-  </si>
-  <si>
-    <t>6020-192220-000602 列表 - 增减.sy.md</t>
-  </si>
-  <si>
-    <t>6030-192221-000603 列表 - 构造 范围 range.sy.md</t>
-  </si>
-  <si>
-    <t>6040-192241-000604 列表 - 索引 index.sy.md</t>
-  </si>
-  <si>
-    <t>6050-192242-000605 列表 - 运算.sy.md</t>
-  </si>
-  <si>
-    <t>6060-192294-000606 列表 - 切片 slice.sy.md</t>
-  </si>
-  <si>
-    <t>6070-192295-000607  列表  - 排序 order.sy.md</t>
-  </si>
-  <si>
-    <t>6080-192296-000608 列表 - 嵌套embeded.sy.md</t>
-  </si>
-  <si>
-    <t>6090-192304-000609 元组 tuple.sy.md</t>
-  </si>
-  <si>
-    <t>6100-192403-000610 字符串序列 string.sy.md</t>
-  </si>
-  <si>
-    <t>6110-192405-000611 字节流序列 bytes.sy.md</t>
-  </si>
-  <si>
-    <t>6120-192411-000612 集合 set 元素操作.sy.md</t>
-  </si>
-  <si>
-    <t>6130-192413-000613 集合运算.sy.md</t>
-  </si>
-  <si>
-    <t>6140-192414-000614 字典 dictionary.sy.md</t>
-  </si>
-  <si>
-    <t>6150-192423-000615 字典操作.sy.md</t>
-  </si>
-  <si>
-    <t>70-87487-000107 字符本质.sy.md</t>
-  </si>
-  <si>
-    <t>701-197319-000701 分支开始.sy.md</t>
-  </si>
-  <si>
-    <t>7020-198696-000702 缩进细节.sy.md</t>
-  </si>
-  <si>
-    <t>7030-199151-000703 调试程序.sy.md</t>
-  </si>
-  <si>
-    <t>7040-199155-000704 比较运算符.sy.md</t>
-  </si>
-  <si>
-    <t>80-87675-000108 ascii码表.sy.md</t>
-  </si>
-  <si>
-    <t>90-87338-000109 换行字符.sy.md</t>
-  </si>
-  <si>
-    <t>test.csv</t>
-  </si>
-  <si>
-    <t>读取细节</t>
-  </si>
-  <si>
-    <t>电传打字机.sp.md</t>
-  </si>
-  <si>
-    <t>先跑起来</t>
-  </si>
-  <si>
-    <t>不换行输出</t>
-  </si>
-  <si>
-    <t>输出时间</t>
-  </si>
-  <si>
-    <t>刷新时间</t>
-  </si>
-  <si>
-    <t>整合程序</t>
-  </si>
-  <si>
-    <t>啥是变量</t>
-  </si>
-  <si>
-    <t>直接运行</t>
-  </si>
-  <si>
-    <t>设置路径</t>
-  </si>
-  <si>
-    <t>查看进程</t>
-  </si>
-  <si>
-    <t>回到开头</t>
-  </si>
-  <si>
-    <t>深度整合</t>
-  </si>
-  <si>
-    <t>换行回车</t>
-  </si>
-  <si>
-    <t>你好世界</t>
-  </si>
-  <si>
-    <t>浏览过程</t>
-  </si>
-  <si>
-    <t>xpath筛选</t>
-  </si>
-  <si>
-    <t>转义序列</t>
-  </si>
-  <si>
-    <t>转义字符</t>
-  </si>
-  <si>
-    <t>光标位置</t>
-  </si>
-  <si>
-    <t>字体样式</t>
-  </si>
-  <si>
-    <t>修改颜色</t>
-  </si>
-  <si>
-    <t>背景颜色</t>
-  </si>
-  <si>
-    <t>更多颜色</t>
-  </si>
-  <si>
-    <t>各种符号</t>
-  </si>
-  <si>
-    <t>编码进化</t>
-  </si>
-  <si>
-    <t>继续运行</t>
-  </si>
-  <si>
-    <t>各语言字符编码</t>
-  </si>
-  <si>
-    <t>定义变量</t>
-  </si>
-  <si>
-    <t>接收输入</t>
-  </si>
-  <si>
-    <t>相加运算</t>
-  </si>
-  <si>
-    <t>尝试捕获异常</t>
-  </si>
-  <si>
-    <t>自制模块</t>
-  </si>
-  <si>
-    <t>主控程序</t>
-  </si>
-  <si>
-    <t>版本控制git</t>
-  </si>
-  <si>
-    <t>注释说明</t>
-  </si>
-  <si>
-    <t>unicode</t>
-  </si>
-  <si>
-    <t>帮助手册</t>
-  </si>
-  <si>
-    <t>动态类型</t>
-  </si>
-  <si>
-    <t>字符串类型</t>
-  </si>
-  <si>
-    <t>整型数字变量</t>
-  </si>
-  <si>
-    <t>进制转化</t>
-  </si>
-  <si>
-    <t>另类字符</t>
-  </si>
-  <si>
-    <t>python历史</t>
-  </si>
-  <si>
-    <t>调试程序</t>
-  </si>
-  <si>
-    <t>加法运算</t>
-  </si>
-  <si>
-    <t>键盘输入</t>
-  </si>
-  <si>
-    <t>随机数字</t>
-  </si>
-  <si>
-    <t>随机字符</t>
-  </si>
-  <si>
-    <t>颜色常量</t>
-  </si>
-  <si>
-    <t>减法运算</t>
-  </si>
-  <si>
-    <t>随机快乐</t>
-  </si>
-  <si>
-    <t>负数表示</t>
-  </si>
-  <si>
-    <t>补码系统</t>
-  </si>
-  <si>
-    <t>乘法运算</t>
-  </si>
-  <si>
-    <t>除法运算</t>
-  </si>
-  <si>
-    <t>取整操作</t>
-  </si>
-  <si>
-    <t>浮点类型</t>
-  </si>
-  <si>
-    <t>分数类型</t>
-  </si>
-  <si>
-    <t>深入浮点型数字</t>
-  </si>
-  <si>
-    <t>深入整型数字</t>
-  </si>
-  <si>
-    <t>乘方运算</t>
-  </si>
-  <si>
-    <t>开方和对数运算</t>
-  </si>
-  <si>
-    <t>虚数类型</t>
-  </si>
-  <si>
-    <t>teletype历史</t>
-  </si>
-  <si>
-    <t>程序本质</t>
-  </si>
-  <si>
-    <t>打开文件</t>
-  </si>
-  <si>
-    <t>命令行参数</t>
-  </si>
-  <si>
-    <t>写入文件</t>
-  </si>
-  <si>
-    <t>二进制模式</t>
-  </si>
-  <si>
-    <t>二进制文件流存取整数</t>
-  </si>
-  <si>
-    <t>二进制文件流存取浮点数</t>
-  </si>
-  <si>
-    <t>python的进化</t>
-  </si>
-  <si>
-    <t>拷贝程序</t>
-  </si>
-  <si>
-    <t>文件锁</t>
-  </si>
-  <si>
-    <t>追加写入</t>
-  </si>
-  <si>
-    <t>多文件读写</t>
-  </si>
-  <si>
-    <t>执行外部命令</t>
-  </si>
-  <si>
-    <t>编码encoding</t>
-  </si>
-  <si>
-    <t>with关键字</t>
-  </si>
-  <si>
-    <t>集合运算</t>
-  </si>
-  <si>
-    <t>字典操作</t>
-  </si>
-  <si>
-    <t>字符本质</t>
-  </si>
-  <si>
-    <t>分支开始</t>
-  </si>
-  <si>
-    <t>缩进细节</t>
-  </si>
-  <si>
-    <t>比较运算符</t>
-  </si>
-  <si>
-    <t>ascii码表</t>
-  </si>
-  <si>
-    <t>换行字符</t>
-  </si>
-  <si>
-    <t>requests模块</t>
-  </si>
-  <si>
-    <t>lxml元素树形结构</t>
-  </si>
-  <si>
-    <t>lxml属性</t>
-  </si>
-  <si>
-    <t>lxml文本</t>
-  </si>
-  <si>
-    <t>lxml遍历</t>
-  </si>
-  <si>
-    <t>lxml生成etree</t>
-  </si>
-  <si>
-    <t>lxml结合requests</t>
-  </si>
-  <si>
-    <t>xpath属性筛选</t>
-  </si>
-  <si>
-    <t>xpath路径表达式</t>
-  </si>
-  <si>
-    <t>综合练习爬取网站</t>
-  </si>
-  <si>
-    <t>综合练习遍历链接</t>
-  </si>
-  <si>
-    <t>utf8</t>
-  </si>
-  <si>
-    <t>表达式expression</t>
-  </si>
-  <si>
-    <t>序列化Serialize</t>
-  </si>
-  <si>
-    <t>helloworld</t>
-  </si>
-  <si>
-    <t>列表类型</t>
-  </si>
-  <si>
-    <t>列表增减</t>
-  </si>
-  <si>
-    <t>列表构造范围</t>
-  </si>
-  <si>
-    <t>列表索引index</t>
-  </si>
-  <si>
-    <t>列表运算</t>
-  </si>
-  <si>
-    <t>列表切片slice</t>
-  </si>
-  <si>
-    <t>列表排序order</t>
-  </si>
-  <si>
-    <t>列表嵌套embeded</t>
-  </si>
-  <si>
-    <t>元组tuple</t>
-  </si>
-  <si>
-    <t>字符串序列string</t>
-  </si>
-  <si>
-    <t>字节流序列bytes</t>
-  </si>
-  <si>
-    <t>集合set元素操作</t>
-  </si>
-  <si>
-    <t>字典dictionary</t>
-  </si>
-  <si>
-    <t/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合练习 爬取网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201170-233735-000801 循环起来.sy.md</t>
+  </si>
+  <si>
+    <t>201180-233736-000802 循环条件.sy.md</t>
+  </si>
+  <si>
+    <t>201190-233769-000803 break_中断条件.sy.md</t>
+  </si>
+  <si>
+    <t>201200-233772-000804 循环细节.sy.md</t>
+  </si>
+  <si>
+    <t>201210-233773-000805 else_不满足循环条件时.sy.md</t>
+  </si>
+  <si>
+    <t>201220-233775-000806 continue_继续.sy.md</t>
+  </si>
+  <si>
+    <t>201230-233791-000807 for_循环_玲珑塔.sy.md</t>
+  </si>
+  <si>
+    <t>201240-233802-000808 iterable_可迭代对象_元组_列表.sy.md</t>
+  </si>
+  <si>
+    <t>201250-233828-000809 可迭代对象 _集合_sorted.sy.md</t>
+  </si>
+  <si>
+    <t>201260-233829-000810 for_遍历字符串和字节序列.sy.md</t>
+  </si>
+  <si>
+    <t>201270-233927-000811 for_遍历字典dict.sy.md</t>
+  </si>
+  <si>
+    <t>201280-234325-000812 zip_缝合.sy.md</t>
+  </si>
+  <si>
+    <t>201290-234326-000813 enumerate_编号.sy.md</t>
+  </si>
+  <si>
+    <t>201300-234327-000814 二重循环.sy.md</t>
+  </si>
+  <si>
+    <t>201310-234372-000815 遍历文件流.sy.md</t>
+  </si>
+  <si>
+    <t>201330-250390-020114 百度指数.sy.md</t>
+  </si>
+  <si>
+    <t>201340-250391-020115 爬取图片.sy.md</t>
+  </si>
+  <si>
+    <t>201350-252877-020116 爬取图片进阶.sy.md</t>
+  </si>
+  <si>
+    <t>201360-253240-020117 爬取图像数据.sy.md</t>
+  </si>
+  <si>
+    <t>201370-253312-000816 for的总结.sy.md</t>
+  </si>
+  <si>
+    <t>201380-253313-000817 列表推导式.sy.md</t>
   </si>
 </sst>
 </file>
@@ -794,12 +904,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,16 +1235,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBC103C-7E9A-8F4E-8630-D867AF472378}">
-  <dimension ref="A2:D129"/>
+  <dimension ref="A2:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="57.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" customWidth="1"/>
   </cols>
@@ -1137,13 +1253,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="C2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="str">
         <f>"![" &amp; C2 &amp; "](./md/" &amp; A2 &amp; ")"</f>
         <v>![先跑起来](./md/10-87321-000101 先跑起来.sy.md)</v>
       </c>
@@ -1152,11 +1268,11 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>102</v>
+      <c r="B3" s="2">
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">"![" &amp; C3 &amp; "](./md/" &amp; A3 &amp; ")"</f>
@@ -1165,13 +1281,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1180,13 +1296,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="2">
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1195,13 +1311,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="2">
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1210,13 +1326,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="B7" s="2">
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1225,13 +1341,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="1">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B8" s="2">
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1240,13 +1356,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="1">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="2">
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1255,13 +1371,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="1">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="B10" s="2">
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1276,7 +1392,7 @@
         <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1291,7 +1407,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1306,7 +1422,7 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1321,7 +1437,7 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1330,13 +1446,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1351,7 +1467,7 @@
         <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1366,7 +1482,7 @@
         <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1381,7 +1497,7 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1396,7 +1512,7 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1411,7 +1527,7 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1542,7 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1441,7 +1557,7 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1450,13 +1566,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1465,13 +1581,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1480,13 +1596,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1495,13 +1611,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1510,13 +1626,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1525,13 +1641,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1540,13 +1656,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -1555,13 +1671,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -1570,13 +1686,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1585,13 +1701,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -1600,13 +1716,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
         <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1615,13 +1731,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -1630,13 +1746,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1645,13 +1761,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -1666,7 +1782,7 @@
         <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -1675,13 +1791,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>302</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -1690,13 +1806,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -1705,13 +1821,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>304</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -1720,13 +1836,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>305</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -1735,13 +1851,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>306</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -1750,13 +1866,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -1765,13 +1881,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -1780,13 +1896,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>309</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -1795,13 +1911,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -1810,13 +1926,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -1825,13 +1941,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>312</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -1840,13 +1956,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -1855,13 +1971,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>314</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -1870,13 +1986,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
         <v>401</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -1885,13 +2001,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
         <v>402</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -1900,13 +2016,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
         <v>403</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -1915,13 +2031,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
         <v>404</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -1930,13 +2046,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
         <v>405</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -1945,13 +2061,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1">
         <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -1960,13 +2076,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>407</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -1975,13 +2091,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1">
         <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -1990,13 +2106,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
         <v>409</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2005,13 +2121,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
         <v>410</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2020,13 +2136,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1">
         <v>411</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2035,13 +2151,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1">
         <v>412</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2050,13 +2166,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1">
         <v>413</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2065,13 +2181,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1">
         <v>414</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2080,13 +2196,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>415</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2095,13 +2211,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>416</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -2110,28 +2226,28 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1">
         <v>417</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D129" si="1">"![" &amp; C67 &amp; "](./md/" &amp; A67 &amp; ")"</f>
+        <f t="shared" ref="D67:D118" si="1">"![" &amp; C67 &amp; "](./md/" &amp; A67 &amp; ")"</f>
         <v>![乘方运算](./md/4170-189506-000417 乘方运算.sy.md)</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1">
         <v>419</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2140,13 +2256,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1">
         <v>420</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2155,13 +2271,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1">
         <v>501</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2292,7 @@
         <v>502</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2185,13 +2301,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>503</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2200,13 +2316,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>504</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2215,13 +2331,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>505</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2230,13 +2346,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>506</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2245,13 +2361,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>507</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2260,13 +2376,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>508</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2275,13 +2391,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>509</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2290,13 +2406,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>510</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2305,13 +2421,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>511</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2320,13 +2436,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>512</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2335,13 +2451,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>513</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2350,13 +2466,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1">
         <v>514</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -2365,13 +2481,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1">
         <v>515</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -2380,13 +2496,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1">
         <v>516</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -2395,13 +2511,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1">
         <v>601</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -2410,13 +2526,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1">
         <v>602</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -2425,13 +2541,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1">
         <v>603</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -2440,13 +2556,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1">
         <v>604</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
@@ -2455,13 +2571,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1">
         <v>605</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -2470,13 +2586,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1">
         <v>606</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -2485,13 +2601,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1">
         <v>607</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -2500,13 +2616,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1">
         <v>608</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -2515,13 +2631,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1">
         <v>609</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -2530,13 +2646,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1">
         <v>610</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -2545,13 +2661,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1">
         <v>611</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -2560,13 +2676,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1">
         <v>612</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -2575,13 +2691,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1">
         <v>613</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -2590,13 +2706,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="1">
         <v>614</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -2605,13 +2721,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" s="1">
         <v>615</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -2620,13 +2736,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" s="1">
         <v>701</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -2635,13 +2751,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="1">
         <v>702</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -2650,13 +2766,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1">
         <v>703</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -2665,13 +2781,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="1">
         <v>704</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -2680,13 +2796,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="1">
         <v>2015</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -2701,7 +2817,7 @@
         <v>20101</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -2716,7 +2832,7 @@
         <v>20102</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -2731,7 +2847,7 @@
         <v>20103</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -2746,7 +2862,7 @@
         <v>20104</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -2761,7 +2877,7 @@
         <v>20105</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -2776,7 +2892,7 @@
         <v>20106</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -2791,7 +2907,7 @@
         <v>20107</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -2806,7 +2922,7 @@
         <v>20108</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -2821,7 +2937,7 @@
         <v>20109</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -2836,7 +2952,7 @@
         <v>20110</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -2851,7 +2967,7 @@
         <v>20111</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -2860,134 +2976,726 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B117" s="1">
         <v>20112</v>
       </c>
-      <c r="C117" t="s">
-        <v>215</v>
+      <c r="C117" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
-        <v>![综合练习爬取网站](./md/201120-194366-020112 综合练习 爬取网站.sy.md)</v>
+        <v>![综合练习 爬取网站](./md/201120-194366-020112 综合练习 爬取网站.sy.md)</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118" s="1">
         <v>20113</v>
       </c>
-      <c r="C118" t="s">
-        <v>216</v>
+      <c r="C118" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
-        <v>![综合练习遍历链接](./md/201130-194455-020113 综合练习 遍历链接.sy.md)</v>
+        <v>![综合练习 爬取网站](./md/201130-194455-020113 综合练习 遍历链接.sy.md)</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>MID(A119,20,100)</f>
+        <v>序列类容器的比较运算.sy.md</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f>LEFT(B119,LEN(B119)-6)</f>
+        <v>序列类容器的比较运算</v>
+      </c>
+      <c r="D119" t="str">
+        <f>"- [" &amp; C119 &amp; "](./md/" &amp; A119 &amp; ")"</f>
+        <v>- [序列类容器的比较运算](./md/7050-203062-000705 序列类容器的比较运算.sy.md)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" ref="B120:B135" si="2">MID(A120,20,100)</f>
+        <v>映射类和集合类容器比较运算.sy.md</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" ref="C120:C135" si="3">LEFT(B120,LEN(B120)-6)</f>
+        <v>映射类和集合类容器比较运算</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" ref="D120:D136" si="4">"- [" &amp; C120 &amp; "](./md/" &amp; A120 &amp; ")"</f>
+        <v>- [映射类和集合类容器比较运算](./md/7060-203075-000706 映射类和集合类容器比较运算.sy.md)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>是否等于_is.sy.md</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>是否等于_is</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="4"/>
+        <v>- [是否等于_is](./md/7070-203108-000707 是否等于_is.sy.md)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>是否是某类型实例_isinstance.sy.md</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>是否是某类型实例_isinstance</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="4"/>
+        <v>- [是否是某类型实例_isinstance](./md/7080-203370-000708 是否是某类型实例_isinstance.sy.md)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>234</v>
       </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/test.csv)</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="C120" t="s">
-        <v>234</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="C121" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="C122" t="s">
-        <v>234</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="C123" t="s">
-        <v>234</v>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>是否属于_in.sy.md</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>是否属于_in</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [是否属于_in](./md/7090-203367-000709 是否属于_in.sy.md)</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="C124" t="s">
-        <v>234</v>
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>取反运算_not.sy.md</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>取反运算_not</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [取反运算_not](./md/7100-203369-000710 取反运算_not.sy.md)</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="C125" t="s">
-        <v>234</v>
+      <c r="A125" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>双分支结构_else.sy.md</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>双分支结构_else</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [双分支结构_else](./md/7110-203372-000711 双分支结构_else.sy.md)</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="C126" t="s">
-        <v>234</v>
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>三目运算符.sy.md</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>三目运算符</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [三目运算符](./md/7120-203373-000712 三目运算符.sy.md)</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="C127" t="s">
-        <v>234</v>
+      <c r="A127" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>嵌套条件语句.sy.md</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>嵌套条件语句</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [嵌套条件语句](./md/7130-203374-000713 嵌套条件语句.sy.md)</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="C128" t="s">
-        <v>234</v>
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>跳过_pass_猜丁壳.sy.md</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>跳过_pass_猜丁壳</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" t="s">
-        <v>234</v>
+        <f t="shared" si="4"/>
+        <v>- [跳过_pass_猜丁壳](./md/7150-203377-000715 跳过_pass_猜丁壳.sy.md)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>逻辑与_and.sy.md</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>逻辑与_and</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>![](./md/)</v>
+        <f t="shared" si="4"/>
+        <v>- [逻辑与_and](./md/7160-203381-000716 逻辑与_and.sy.md)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>数字区间.sy.md</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>数字区间</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="4"/>
+        <v>- [数字区间](./md/7170-203409-000717 数字区间.sy.md)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>逻辑或_or.sy.md</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>逻辑或_or</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="4"/>
+        <v>- [逻辑或_or](./md/7180-203387-000718 逻辑或_or.sy.md)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>优先级_precedence.sy.md</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>优先级_precedence</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>- [优先级_precedence](./md/7190-203872-000719 优先级_precedence.sy.md)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>综合练习_玩骰子_dices.sy.md</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>综合练习_玩骰子_dices</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>- [综合练习_玩骰子_dices](./md/7200-203873-000720 综合练习_玩骰子_dices.sy.md)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>位运算符_按位与或非.sy.md</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>位运算符_按位与或非</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>- [位运算符_按位与或非](./md/7210-203874-000721 位运算符_按位与或非.sy.md)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>移位运算符.sy.md</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>移位运算符</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>- [移位运算符](./md/7220-205644-000722 移位运算符.sy.md)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f>MID(A136,20,100)</f>
+        <v>条件分支流程总结.sy.md</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f>LEFT(B136,LEN(B136)-6)</f>
+        <v>条件分支流程总结</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>- [条件分支流程总结](./md/7230-206033-000723 条件分支流程总结.sy.md)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f>MID(A137,22,100)</f>
+        <v>循环起来.sy.md</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f t="shared" ref="C137:C158" si="5">LEFT(B137,LEN(B137)-6)</f>
+        <v>循环起来</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" ref="D137" si="6">"- [" &amp; C137 &amp; "](./md/" &amp; A137 &amp; ")"</f>
+        <v>- [循环起来](./md/201170-233735-000801 循环起来.sy.md)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f t="shared" ref="B138:B158" si="7">MID(A138,22,100)</f>
+        <v>循环条件.sy.md</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>循环条件</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" ref="D138:D158" si="8">"- [" &amp; C138 &amp; "](./md/" &amp; A138 &amp; ")"</f>
+        <v>- [循环条件](./md/201180-233736-000802 循环条件.sy.md)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>break_中断条件.sy.md</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>break_中断条件</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="8"/>
+        <v>- [break_中断条件](./md/201190-233769-000803 break_中断条件.sy.md)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>循环细节.sy.md</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>循环细节</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="8"/>
+        <v>- [循环细节](./md/201200-233772-000804 循环细节.sy.md)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>else_不满足循环条件时.sy.md</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>else_不满足循环条件时</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="8"/>
+        <v>- [else_不满足循环条件时](./md/201210-233773-000805 else_不满足循环条件时.sy.md)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>continue_继续.sy.md</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>continue_继续</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="8"/>
+        <v>- [continue_继续](./md/201220-233775-000806 continue_继续.sy.md)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>for_循环_玲珑塔.sy.md</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>for_循环_玲珑塔</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="8"/>
+        <v>- [for_循环_玲珑塔](./md/201230-233791-000807 for_循环_玲珑塔.sy.md)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>iterable_可迭代对象_元组_列表.sy.md</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>iterable_可迭代对象_元组_列表</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="8"/>
+        <v>- [iterable_可迭代对象_元组_列表](./md/201240-233802-000808 iterable_可迭代对象_元组_列表.sy.md)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>可迭代对象 _集合_sorted.sy.md</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>可迭代对象 _集合_sorted</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="8"/>
+        <v>- [可迭代对象 _集合_sorted](./md/201250-233828-000809 可迭代对象 _集合_sorted.sy.md)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>for_遍历字符串和字节序列.sy.md</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>for_遍历字符串和字节序列</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="8"/>
+        <v>- [for_遍历字符串和字节序列](./md/201260-233829-000810 for_遍历字符串和字节序列.sy.md)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>for_遍历字典dict.sy.md</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>for_遍历字典dict</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="8"/>
+        <v>- [for_遍历字典dict](./md/201270-233927-000811 for_遍历字典dict.sy.md)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>zip_缝合.sy.md</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zip_缝合</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="8"/>
+        <v>- [zip_缝合](./md/201280-234325-000812 zip_缝合.sy.md)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>enumerate_编号.sy.md</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>enumerate_编号</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="8"/>
+        <v>- [enumerate_编号](./md/201290-234326-000813 enumerate_编号.sy.md)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>二重循环.sy.md</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>二重循环</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="8"/>
+        <v>- [二重循环](./md/201300-234327-000814 二重循环.sy.md)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>遍历文件流.sy.md</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>遍历文件流</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="8"/>
+        <v>- [遍历文件流](./md/201310-234372-000815 遍历文件流.sy.md)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>for的总结.sy.md</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>for的总结</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" ref="D152:D153" si="9">"- [" &amp; C152 &amp; "](./md/" &amp; A152 &amp; ")"</f>
+        <v>- [for的总结](./md/201370-253312-000816 for的总结.sy.md)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>列表推导式.sy.md</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>列表推导式</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="9"/>
+        <v>- [列表推导式](./md/201380-253313-000817 列表推导式.sy.md)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C154" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D154" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>265</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>百度指数.sy.md</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>百度指数</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="8"/>
+        <v>- [百度指数](./md/201330-250390-020114 百度指数.sy.md)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>爬取图片.sy.md</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>爬取图片</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="8"/>
+        <v>- [爬取图片](./md/201340-250391-020115 爬取图片.sy.md)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>爬取图片进阶.sy.md</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>爬取图片进阶</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="8"/>
+        <v>- [爬取图片进阶](./md/201350-252877-020116 爬取图片进阶.sy.md)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>爬取图像数据.sy.md</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>爬取图像数据</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="8"/>
+        <v>- [爬取图像数据](./md/201360-253240-020117 爬取图像数据.sy.md)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f>MID(A159,22,100)</f>
+        <v>for的总结.sy.md</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f>LEFT(B159,LEN(B159)-6)</f>
+        <v>for的总结</v>
+      </c>
+      <c r="D159" t="str">
+        <f>"- [" &amp; C159 &amp; "](./md/" &amp; A159 &amp; ")"</f>
+        <v>- [for的总结](./md/201370-253312-000816 for的总结.sy.md)</v>
       </c>
     </row>
   </sheetData>
